--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344DE00-1D47-46CF-8B9E-906D920CEA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83454AA-631A-40AC-9AC0-908D23C3DF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE620007-8DE5-4166-9D3D-9DDAD9493365}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
   <si>
     <t>aaconsToLeisRatio</t>
   </si>
@@ -252,16 +252,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -578,16 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC950ECC-B660-45F8-8387-1BED4EFA9C7C}">
-  <dimension ref="A1:W135"/>
+  <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L126" sqref="L126"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="15" width="9.140625" style="7"/>
+    <col min="13" max="15" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -618,13 +616,13 @@
       <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
@@ -651,15 +649,15 @@
         <f>1.361384</f>
         <v>1.3613839999999999</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <f xml:space="preserve"> 295.8024 * 4.333</f>
         <v>1281.7117991999999</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f xml:space="preserve"> 482.8467 * 4.333</f>
         <v>2092.1747510999999</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <f xml:space="preserve"> 478.0918 * 4.333</f>
         <v>2071.5717694</v>
       </c>
@@ -821,13 +819,13 @@
       <c r="L7">
         <v>0.458209218041841</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <v>-187.527345356144</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>-454.72442578385699</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="6">
         <v>-574.380908265426</v>
       </c>
       <c r="P7">
@@ -868,13 +866,13 @@
       <c r="L8">
         <v>0.46337031000990803</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>-139.51792735368301</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>-404.292488645238</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>-556.35949999510501</v>
       </c>
       <c r="P8">
@@ -915,13 +913,13 @@
       <c r="L9">
         <v>0.79143777599561205</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>-78.345563377650393</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>-292.28473616470501</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>-488.04022946136399</v>
       </c>
       <c r="P9">
@@ -962,13 +960,13 @@
       <c r="L10">
         <v>0.78617752954352604</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="6">
         <v>-78.333232862848902</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>-291.64359790926898</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>-486.36676181095902</v>
       </c>
       <c r="P10">
@@ -1009,13 +1007,13 @@
       <c r="L11">
         <v>0.78617236661600498</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>-78.333232862848902</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="6">
         <v>-291.64359790926898</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>-486.36676181095902</v>
       </c>
       <c r="P11">
@@ -1041,13 +1039,13 @@
       <c r="L12">
         <v>0.84175556435477406</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>36.7453434755868</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="6">
         <v>-269.07751344698698</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="6">
         <v>-440.41369219705001</v>
       </c>
       <c r="P12">
@@ -1073,13 +1071,13 @@
       <c r="L13">
         <v>0.82637119724307595</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="6">
         <v>103.81601561741</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="6">
         <v>-233.656788175158</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="6">
         <v>-404.63031223161897</v>
       </c>
       <c r="P13">
@@ -1105,13 +1103,13 @@
       <c r="L14">
         <v>0.88475364886087804</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>204.56232805233299</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="6">
         <v>-36.816221013542403</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="6">
         <v>-242.235164334415</v>
       </c>
       <c r="P14">
@@ -1137,13 +1135,13 @@
       <c r="L15">
         <v>0.89337947627536196</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>201.280116932704</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="6">
         <v>-35.137295287872803</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="6">
         <v>-242.355258175247</v>
       </c>
       <c r="P15">
@@ -1187,13 +1185,13 @@
       <c r="L16">
         <v>0.83010155122696905</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="6">
         <v>220.27411073581001</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>-14.242333907255199</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="6">
         <v>588.976326712174</v>
       </c>
       <c r="P16">
@@ -1237,13 +1235,13 @@
       <c r="L17">
         <v>0.82913782655916801</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>220.22938576480001</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>-14.9989323602026</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>588.13670238046495</v>
       </c>
       <c r="P17">
@@ -1287,13 +1285,13 @@
       <c r="L18">
         <v>0.82921868634025198</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <v>220.20207532102401</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <v>-15.3162929179411</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <v>586.67409392101194</v>
       </c>
       <c r="P18">
@@ -1337,13 +1335,13 @@
       <c r="L19">
         <v>0.816814688148634</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <v>187.396229492391</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <v>-52.6104655200579</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <v>577.45490452771696</v>
       </c>
       <c r="P19">
@@ -1391,13 +1389,13 @@
       <c r="L20">
         <v>0.67768730533139099</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>184.247728406059</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <v>-85.185911160768896</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <v>473.77858719170501</v>
       </c>
       <c r="P20">
@@ -1441,13 +1439,13 @@
       <c r="L21">
         <v>0.46892617272867398</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>170.25823523714701</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <v>-134.21921367683899</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <v>368.16293721022498</v>
       </c>
       <c r="P21">
@@ -1491,13 +1489,13 @@
       <c r="L22">
         <v>0.43989426742745502</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <v>134.694108384657</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <v>-201.848534296726</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <v>296.59644626013898</v>
       </c>
       <c r="P22">
@@ -1541,13 +1539,13 @@
       <c r="L23">
         <v>0.45608426628078702</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <v>94.362439898032306</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <v>-259.493831036421</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <v>234.99034811144199</v>
       </c>
       <c r="P23">
@@ -1591,13 +1589,13 @@
       <c r="L24" s="2">
         <v>9.96116890681224E-2</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>-36.698946559382101</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <v>-840.39671697472102</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <v>-765.50043824018701</v>
       </c>
       <c r="P24" s="2">
@@ -1645,13 +1643,13 @@
       <c r="L25">
         <v>9.8310229362040299E-2</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="6">
         <v>-11.005409083579201</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="6">
         <v>-746.80863095926998</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="6">
         <v>-721.88576661116997</v>
       </c>
       <c r="P25">
@@ -1695,13 +1693,13 @@
       <c r="L26">
         <v>0.12180672381765199</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="6">
         <v>-12.0707455357824</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="6">
         <v>-771.297273840505</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="6">
         <v>-764.77922487448404</v>
       </c>
       <c r="P26">
@@ -1745,13 +1743,13 @@
       <c r="L27">
         <v>0.121020039718964</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="6">
         <v>-10.324645888219001</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="6">
         <v>-770.70972729335699</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="6">
         <v>-762.70551147391598</v>
       </c>
       <c r="P27">
@@ -1795,13 +1793,13 @@
       <c r="L28">
         <v>0.13118814167901299</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="6">
         <v>-91.830151948631894</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="6">
         <v>-905.75718226115305</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="6">
         <v>-830.24520930546998</v>
       </c>
       <c r="P28">
@@ -1845,13 +1843,13 @@
       <c r="L29">
         <v>9.7609524978264403E-2</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="6">
         <v>-10.9891192332031</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="6">
         <v>-743.48595546347303</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="6">
         <v>-718.51497606630699</v>
       </c>
       <c r="P29">
@@ -1895,13 +1893,13 @@
       <c r="L30">
         <v>9.6156431428910699E-2</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="6">
         <v>-10.922629459605499</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="6">
         <v>-739.12210212483501</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="6">
         <v>-710.21301244438496</v>
       </c>
       <c r="P30">
@@ -1945,13 +1943,13 @@
       <c r="L31">
         <v>0.39596589603244797</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="6">
         <v>56.647661526362</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="6">
         <v>-301.644224372586</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="6">
         <v>212.19976534474199</v>
       </c>
       <c r="P31">
@@ -1995,13 +1993,13 @@
       <c r="L32">
         <v>9.67366315299098E-2</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="6">
         <v>3.7151485690085302</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="6">
         <v>-623.37817510585398</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="6">
         <v>-449.73673808821201</v>
       </c>
       <c r="P32">
@@ -2049,13 +2047,13 @@
       <c r="L33">
         <v>0.120210191579929</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="6">
         <v>37.432264030676102</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="6">
         <v>-494.87069195253298</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="6">
         <v>-333.40710954213301</v>
       </c>
       <c r="P33">
@@ -2099,13 +2097,13 @@
       <c r="L34">
         <v>0.13151281014774499</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="6">
         <v>35.917078380992201</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="6">
         <v>-606.35684896335897</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="6">
         <v>-620.17488453977705</v>
       </c>
       <c r="P34">
@@ -2153,13 +2151,13 @@
       <c r="L35">
         <v>0.13148070805523299</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="6">
         <v>35.917078380992201</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="6">
         <v>-606.35684896335897</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="6">
         <v>-620.06099138589798</v>
       </c>
       <c r="P35">
@@ -2203,13 +2201,13 @@
       <c r="L36">
         <v>0.13053318619777099</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="6">
         <v>35.917078380992201</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="6">
         <v>-606.18700868085398</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="6">
         <v>-619.58941386727099</v>
       </c>
       <c r="P36">
@@ -2253,13 +2251,13 @@
       <c r="L37">
         <v>0.129881134571707</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="6">
         <v>35.716506556608202</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="6">
         <v>-604.12699487542795</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="6">
         <v>-614.77456278949603</v>
       </c>
       <c r="P37">
@@ -2303,13 +2301,13 @@
       <c r="L38">
         <v>0.12694206595542901</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="6">
         <v>35.533362989413199</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="6">
         <v>-589.03070040391799</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="6">
         <v>-564.45743576300197</v>
       </c>
       <c r="P38">
@@ -2353,13 +2351,13 @@
       <c r="L39">
         <v>0.13611678900906299</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="6">
         <v>38.147562151052398</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="6">
         <v>-520.53187809542499</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="6">
         <v>-397.79833015345901</v>
       </c>
       <c r="P39">
@@ -2403,13 +2401,13 @@
       <c r="L40">
         <v>0.13241573682824501</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="6">
         <v>37.5565887382188</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="6">
         <v>-608.51773531989704</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="6">
         <v>-623.96362411049495</v>
       </c>
       <c r="P40">
@@ -2453,13 +2451,13 @@
       <c r="L41">
         <v>0.13263921649423099</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="6">
         <v>37.427407419203199</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="6">
         <v>-608.24699178775597</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="6">
         <v>-622.78703419702697</v>
       </c>
       <c r="P41">
@@ -2503,13 +2501,13 @@
       <c r="L42">
         <v>0.140681219580719</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="6">
         <v>-3.7197220001951301</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="6">
         <v>-684.52300586388401</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="6">
         <v>-689.12231610834601</v>
       </c>
       <c r="P42">
@@ -2553,13 +2551,13 @@
       <c r="L44">
         <v>0.13034355118018301</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="6">
         <v>-36.892160930346698</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="6">
         <v>-861.61748827033796</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="6">
         <v>-801.27778057605997</v>
       </c>
       <c r="P44">
@@ -2603,13 +2601,13 @@
       <c r="L45">
         <v>0.13041966859913501</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="6">
         <v>-36.892160930346698</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="6">
         <v>-861.61748827033796</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="6">
         <v>-801.24505076471996</v>
       </c>
       <c r="P45">
@@ -2653,13 +2651,13 @@
       <c r="L46">
         <v>0.13091131811033599</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="6">
         <v>-36.892160930346698</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="6">
         <v>-861.744750631231</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="6">
         <v>-801.38520535366501</v>
       </c>
       <c r="P46">
@@ -2703,13 +2701,13 @@
       <c r="L48">
         <v>0.130156785277976</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="6">
         <v>-36.812037748328201</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="6">
         <v>-861.75736848397401</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="6">
         <v>-799.70665583065295</v>
       </c>
       <c r="P48">
@@ -2753,13 +2751,13 @@
       <c r="L49">
         <v>8.7341267972267295E-2</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="6">
         <v>-36.540311334802396</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="6">
         <v>-852.08942340789304</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="6">
         <v>-788.53204400786694</v>
       </c>
       <c r="P49">
@@ -2803,13 +2801,13 @@
       <c r="L50">
         <v>7.3534048442282396E-2</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="6">
         <v>-36.414266928996902</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="6">
         <v>-846.616401592285</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="6">
         <v>-780.98078125268501</v>
       </c>
       <c r="P50">
@@ -2853,13 +2851,13 @@
       <c r="L51">
         <v>4.5261379933306103E-2</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="6">
         <v>-34.391821928891197</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="6">
         <v>-789.62697335833298</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="6">
         <v>-682.29026890886098</v>
       </c>
       <c r="P51">
@@ -2903,13 +2901,13 @@
       <c r="L52">
         <v>4.4405799465437601E-2</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="6">
         <v>-31.159783607657499</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="6">
         <v>-750.61194820721801</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="6">
         <v>-601.52948501771402</v>
       </c>
       <c r="P52">
@@ -2953,13 +2951,13 @@
       <c r="L53" s="3">
         <v>4.6159478189266599E-2</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="6">
         <v>-27.3945255964599</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="6">
         <v>-718.09071546807195</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="6">
         <v>-529.53713243482002</v>
       </c>
       <c r="P53" s="3">
@@ -3003,13 +3001,13 @@
       <c r="L54">
         <v>6.6276208059681194E-2</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="6">
         <v>36.494600188915399</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="6">
         <v>-506.80961488524503</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="6">
         <v>-361.55735408335102</v>
       </c>
       <c r="P54">
@@ -3053,13 +3051,13 @@
       <c r="L55">
         <v>7.0052086420617499E-2</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="6">
         <v>-9.0944585894162593</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="6">
         <v>-644.41582058369704</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="6">
         <v>-480.16003415712498</v>
       </c>
       <c r="P55">
@@ -3103,13 +3101,13 @@
       <c r="L56" s="2">
         <v>6.9599902287441603E-2</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="6">
         <v>1.65657874766247</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="6">
         <v>-615.20479448087997</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="6">
         <v>-414.62996476132503</v>
       </c>
       <c r="P56" s="2">
@@ -3156,13 +3154,13 @@
       <c r="L57">
         <v>6.8595950975206904E-2</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="6">
         <v>-0.58778311356081703</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="6">
         <v>-619.14137896753505</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="6">
         <v>-420.659750765588</v>
       </c>
       <c r="P57">
@@ -3206,13 +3204,13 @@
       <c r="L58">
         <v>7.1198981468881095E-2</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="6">
         <v>-0.39397278121305102</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N58" s="6">
         <v>-611.91967403991305</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="6">
         <v>-410.616195286486</v>
       </c>
       <c r="P58">
@@ -3256,13 +3254,13 @@
       <c r="L59">
         <v>7.2177973959537595E-2</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="6">
         <v>-1.8431372837890101</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="6">
         <v>-609.80185699837898</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <v>-406.65205022848102</v>
       </c>
       <c r="P59">
@@ -3306,13 +3304,13 @@
       <c r="L60">
         <v>4.5773120962389197E-2</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="6">
         <v>39.935439340253801</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N60" s="6">
         <v>-533.56157576239798</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="6">
         <v>-339.79750569650702</v>
       </c>
       <c r="P60">
@@ -3356,13 +3354,13 @@
       <c r="L61" s="2">
         <v>3.4265418592362699E-2</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="6">
         <v>52.837038945532598</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N61" s="6">
         <v>-495.88208509845401</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="6">
         <v>-303.22050458343602</v>
       </c>
       <c r="P61" s="2">
@@ -3409,13 +3407,13 @@
       <c r="L62">
         <v>8.6849369633158396E-2</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="6">
         <v>106.06425402946201</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N62" s="6">
         <v>-298.14397776230402</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="6">
         <v>-59.077813885157802</v>
       </c>
       <c r="P62">
@@ -3459,13 +3457,13 @@
       <c r="L63">
         <v>0.104119990520512</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="6">
         <v>41.9337066363818</v>
       </c>
-      <c r="N63" s="7">
+      <c r="N63" s="6">
         <v>-427.25041982021799</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="6">
         <v>-238.73375246026299</v>
       </c>
       <c r="P63">
@@ -3509,13 +3507,13 @@
       <c r="L64">
         <v>8.1894387824209297E-2</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="6">
         <v>37.450112899724203</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="6">
         <v>-460.22442993873398</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="6">
         <v>-308.99216675891898</v>
       </c>
       <c r="P64">
@@ -3564,13 +3562,13 @@
       <c r="L65" s="2">
         <v>4.4977606862029999E-2</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="6">
         <v>41.371695098762501</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N65" s="6">
         <v>-531.15657749829597</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O65" s="6">
         <v>-327.00942406806303</v>
       </c>
       <c r="P65" s="2">
@@ -3617,13 +3615,13 @@
       <c r="L66">
         <v>3.4192328646593002E-2</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="6">
         <v>58.857750066732002</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N66" s="6">
         <v>-491.56375783190299</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="6">
         <v>-284.880545756527</v>
       </c>
       <c r="P66">
@@ -3667,13 +3665,13 @@
       <c r="L67">
         <v>3.79848056754164E-2</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="6">
         <v>60.113057122509097</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N67" s="6">
         <v>-482.04522001977699</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="6">
         <v>-255.40127797904501</v>
       </c>
       <c r="P67">
@@ -3717,13 +3715,13 @@
       <c r="L68">
         <v>3.69765375283852E-2</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="6">
         <v>60.113057122509097</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N68" s="6">
         <v>-485.03157390997399</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="6">
         <v>-262.36077525353897</v>
       </c>
       <c r="P68">
@@ -3767,13 +3765,13 @@
       <c r="L70">
         <v>1.2357773833185899E-2</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="6">
         <v>-55.7780603537621</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N70" s="6">
         <v>-939.53631478204397</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="6">
         <v>-645.59838720742903</v>
       </c>
       <c r="P70">
@@ -3817,13 +3815,13 @@
       <c r="L72">
         <v>3.3129969120793801E-2</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M72" s="6">
         <v>11.639422605726599</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N72" s="6">
         <v>-622.07887630059997</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="6">
         <v>-383.35646138512902</v>
       </c>
       <c r="P72">
@@ -3846,39 +3844,34 @@
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73">
         <v>0.8</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>0.98</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73">
         <v>0.2</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73">
         <v>2.5</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73">
         <v>5.5</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
       <c r="L73">
         <v>3.51122302488589E-2</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M73" s="6">
         <v>15.970849024306499</v>
       </c>
-      <c r="N73" s="7">
+      <c r="N73" s="6">
         <v>-610.41919915187498</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O73" s="6">
         <v>-349.79185103324301</v>
       </c>
       <c r="P73">
@@ -3901,39 +3894,34 @@
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74">
         <v>0.8</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74">
         <v>0.98</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74">
         <v>0.2</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74">
         <v>2.5</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74">
         <v>6</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
       <c r="L74">
         <v>3.7457131074572797E-2</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="6">
         <v>16.1687881648194</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N74" s="6">
         <v>-599.98301746391496</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="6">
         <v>-321.49341200553403</v>
       </c>
       <c r="P74">
@@ -3956,39 +3944,34 @@
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75">
         <v>0.8</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>0.99</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75">
         <v>0.2</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75">
         <v>2.5</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75">
         <v>5.5</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
       <c r="L75">
         <v>4.9529381267345601E-2</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M75" s="6">
         <v>48.618389381736002</v>
       </c>
-      <c r="N75" s="7">
+      <c r="N75" s="6">
         <v>-513.39010740066396</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O75" s="6">
         <v>-276.426228151499</v>
       </c>
       <c r="P75">
@@ -4032,13 +4015,13 @@
       <c r="L76" s="2">
         <v>4.0863910608936502E-2</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M76" s="6">
         <v>6.1288953628491001</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N76" s="6">
         <v>-640.90754466297699</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O76" s="6">
         <v>-372.69622925016603</v>
       </c>
       <c r="P76" s="2">
@@ -4085,13 +4068,13 @@
       <c r="L77">
         <v>4.3866117587331298E-2</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M77" s="6">
         <v>9.9771365959759297</v>
       </c>
-      <c r="N77" s="7">
+      <c r="N77" s="6">
         <v>-627.81941594378895</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O77" s="6">
         <v>-344.75326358833303</v>
       </c>
       <c r="P77">
@@ -4135,13 +4118,13 @@
       <c r="L78">
         <v>3.2736211653130003E-2</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M78" s="6">
         <v>-62.078613341874103</v>
       </c>
-      <c r="N78" s="7">
+      <c r="N78" s="6">
         <v>-817.61502716453799</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O78" s="6">
         <v>-493.785115463696</v>
       </c>
       <c r="P78">
@@ -4185,13 +4168,13 @@
       <c r="L79">
         <v>2.8198332378641201E-2</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M79" s="6">
         <v>-60.778276309278901</v>
       </c>
-      <c r="N79" s="7">
+      <c r="N79" s="6">
         <v>-793.06368194424397</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O79" s="6">
         <v>-440.17078154255699</v>
       </c>
       <c r="P79">
@@ -4235,13 +4218,13 @@
       <c r="L80">
         <v>3.1588572240360997E-2</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="6">
         <v>-56.047522379325699</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N80" s="6">
         <v>-773.51543290486495</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O80" s="6">
         <v>-394.42082703878702</v>
       </c>
       <c r="P80">
@@ -4285,13 +4268,13 @@
       <c r="L81" s="2">
         <v>3.32415025025165E-2</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M81" s="6">
         <v>-54.550915388993602</v>
       </c>
-      <c r="N81" s="7">
+      <c r="N81" s="6">
         <v>-755.12590321588596</v>
       </c>
-      <c r="O81" s="7">
+      <c r="O81" s="6">
         <v>-349.73755073384098</v>
       </c>
       <c r="P81" s="2">
@@ -4335,34 +4318,34 @@
       <c r="F82" t="s">
         <v>16</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82">
         <v>2.5344934800931501E-2</v>
       </c>
-      <c r="M82" s="8">
+      <c r="M82" s="6">
         <v>-93.268813685577697</v>
       </c>
-      <c r="N82" s="8">
+      <c r="N82" s="6">
         <v>-941.44935748232103</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O82" s="6">
         <v>-499.81590832456601</v>
       </c>
-      <c r="P82" s="5">
+      <c r="P82">
         <v>670.57311965101303</v>
       </c>
-      <c r="Q82" s="5">
+      <c r="Q82">
         <v>278.63102803603698</v>
       </c>
-      <c r="R82" s="5">
+      <c r="R82">
         <v>553.39171894013703</v>
       </c>
-      <c r="S82" s="5">
+      <c r="S82">
         <v>2.43952605158201E-2</v>
       </c>
-      <c r="T82" s="5">
+      <c r="T82">
         <v>0.42329821082814001</v>
       </c>
-      <c r="U82" s="5">
+      <c r="U82">
         <v>5.6221818509269501E-2</v>
       </c>
     </row>
@@ -4388,13 +4371,13 @@
       <c r="L83">
         <v>-1.6100710380258801E-2</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M83" s="6">
         <v>-30.974948493813798</v>
       </c>
-      <c r="N83" s="7">
+      <c r="N83" s="6">
         <v>-828.841723191043</v>
       </c>
-      <c r="O83" s="7">
+      <c r="O83" s="6">
         <v>-365.59075093020499</v>
       </c>
       <c r="P83">
@@ -4438,13 +4421,13 @@
       <c r="L84">
         <v>-1.26538243309708E-2</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M84" s="6">
         <v>-22.592265629051699</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N84" s="6">
         <v>-780.58156007731395</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O84" s="6">
         <v>-327.00873950121598</v>
       </c>
       <c r="P84">
@@ -4485,34 +4468,34 @@
       <c r="F85" t="s">
         <v>16</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L85" s="5">
         <v>-9.3239303046097604E-3</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="7">
         <v>-19.900075183598101</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="7">
         <v>-737.75926564617305</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O85" s="7">
         <v>-288.841458974754</v>
       </c>
-      <c r="P85" s="6">
+      <c r="P85" s="5">
         <v>740.24515593132401</v>
       </c>
-      <c r="Q85" s="6">
+      <c r="Q85" s="5">
         <v>365.83207864461002</v>
       </c>
-      <c r="R85" s="6">
+      <c r="R85" s="5">
         <v>666.610781610853</v>
       </c>
-      <c r="S85" s="6">
+      <c r="S85" s="5">
         <v>-3.2542484005013902E-2</v>
       </c>
-      <c r="T85" s="6">
+      <c r="T85" s="5">
         <v>0.26964518093560902</v>
       </c>
-      <c r="U85" s="6">
+      <c r="U85" s="5">
         <v>-6.2830324483591604E-2</v>
       </c>
     </row>
@@ -4535,34 +4518,34 @@
       <c r="F86" t="s">
         <v>16</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86">
         <v>2.6417961290535301E-2</v>
       </c>
-      <c r="M86" s="8">
+      <c r="M86" s="6">
         <v>-85.334189264828595</v>
       </c>
-      <c r="N86" s="8">
+      <c r="N86" s="6">
         <v>-844.58577711530597</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86" s="6">
         <v>-422.61779724139097</v>
       </c>
-      <c r="P86" s="5">
+      <c r="P86">
         <v>654.08448188228999</v>
       </c>
-      <c r="Q86" s="5">
+      <c r="Q86">
         <v>230.24464024703201</v>
       </c>
-      <c r="R86" s="5">
+      <c r="R86">
         <v>511.92116345766101</v>
       </c>
-      <c r="S86" s="5">
+      <c r="S86">
         <v>3.1243219356553698E-3</v>
       </c>
-      <c r="T86" s="5">
+      <c r="T86">
         <v>0.34496352284836901</v>
       </c>
-      <c r="U86" s="5">
+      <c r="U86">
         <v>1.2086208726690299E-2</v>
       </c>
     </row>
@@ -4588,13 +4571,13 @@
       <c r="L87" s="4">
         <v>3.9465128503490803E-3</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="7">
         <v>-62.819453792349499</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="7">
         <v>-886.25644526240399</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="7">
         <v>-434.58633212198998</v>
       </c>
       <c r="P87" s="4">
@@ -5194,34 +5177,34 @@
       <c r="H100">
         <v>0.5</v>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="5">
         <v>-0.13175932548452801</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100" s="5">
         <v>-63.204579958340197</v>
       </c>
-      <c r="N100" s="6">
+      <c r="N100" s="5">
         <v>-623.71281163317497</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O100" s="5">
         <v>-116.422949042383</v>
       </c>
-      <c r="P100" s="6">
+      <c r="P100" s="5">
         <v>604.10823621992904</v>
       </c>
-      <c r="Q100" s="6">
+      <c r="Q100" s="5">
         <v>86.167536781455198</v>
       </c>
-      <c r="R100" s="6">
+      <c r="R100" s="5">
         <v>244.157349314941</v>
       </c>
-      <c r="S100" s="6">
+      <c r="S100" s="5">
         <v>-3.4935464595282399E-2</v>
       </c>
-      <c r="T100" s="6">
+      <c r="T100" s="5">
         <v>0.187896783933893</v>
       </c>
-      <c r="U100" s="6">
+      <c r="U100" s="5">
         <v>-0.193988544944491</v>
       </c>
     </row>
@@ -6319,7 +6302,7 @@
       <c r="R118" s="3">
         <v>848.17775868208196</v>
       </c>
-      <c r="S118" s="10">
+      <c r="S118" s="8">
         <v>-2.18254126941985E-4</v>
       </c>
       <c r="T118" s="3">
@@ -6794,139 +6777,449 @@
       <c r="J126">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="129" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L129" t="s">
+      <c r="L126">
+        <v>-1.4460282390080501E-2</v>
+      </c>
+      <c r="M126">
+        <v>-96.895209838768096</v>
+      </c>
+      <c r="N126">
+        <v>-484.96444919831202</v>
+      </c>
+      <c r="O126">
+        <v>-376.25316423693698</v>
+      </c>
+      <c r="P126">
+        <v>431.900226817602</v>
+      </c>
+      <c r="Q126">
+        <v>-37.820513493235197</v>
+      </c>
+      <c r="R126">
+        <v>496.129191081361</v>
+      </c>
+      <c r="S126">
+        <v>7.3964144171382903E-2</v>
+      </c>
+      <c r="T126">
+        <v>0.16483167059514101</v>
+      </c>
+      <c r="U126" s="1">
+        <v>9.5730343096001003E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1.5</v>
+      </c>
+      <c r="B127">
+        <v>0.99</v>
+      </c>
+      <c r="C127">
+        <v>0.43</v>
+      </c>
+      <c r="D127">
+        <v>2.5</v>
+      </c>
+      <c r="E127">
+        <v>14</v>
+      </c>
+      <c r="F127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127">
+        <v>0.9</v>
+      </c>
+      <c r="H127">
+        <v>0.8</v>
+      </c>
+      <c r="I127">
+        <v>0.2</v>
+      </c>
+      <c r="J127">
+        <v>0.2</v>
+      </c>
+      <c r="L127">
+        <v>-1.27626441950807E-2</v>
+      </c>
+      <c r="M127">
+        <v>-85.773402162456705</v>
+      </c>
+      <c r="N127">
+        <v>-470.29689611772301</v>
+      </c>
+      <c r="O127">
+        <v>-368.95488151747998</v>
+      </c>
+      <c r="P127">
+        <v>459.13617334373203</v>
+      </c>
+      <c r="Q127">
+        <v>18.9182969467624</v>
+      </c>
+      <c r="R127">
+        <v>616.88080031830305</v>
+      </c>
+      <c r="S127">
+        <v>5.8542713700763402E-2</v>
+      </c>
+      <c r="T127">
+        <v>0.15453635767181401</v>
+      </c>
+      <c r="U127">
+        <v>-2.7613795581010701E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1.5</v>
+      </c>
+      <c r="B128">
+        <v>0.995</v>
+      </c>
+      <c r="C128">
+        <v>0.43</v>
+      </c>
+      <c r="D128">
+        <v>2.5</v>
+      </c>
+      <c r="E128">
+        <v>14</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <v>0.9</v>
+      </c>
+      <c r="H128">
+        <v>0.8</v>
+      </c>
+      <c r="I128">
+        <v>0.2</v>
+      </c>
+      <c r="J128">
+        <v>0.2</v>
+      </c>
+      <c r="L128" s="2">
+        <v>-9.9211276414923298E-3</v>
+      </c>
+      <c r="M128" s="2">
+        <v>-65.962659014379994</v>
+      </c>
+      <c r="N128" s="2">
+        <v>-436.61208140412901</v>
+      </c>
+      <c r="O128" s="2">
+        <v>-331.68467109024903</v>
+      </c>
+      <c r="P128" s="2">
+        <v>432.72780681642098</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>-34.218832742689699</v>
+      </c>
+      <c r="R128" s="2">
+        <v>556.47801164155703</v>
+      </c>
+      <c r="S128" s="2">
+        <v>4.5780150552664399E-2</v>
+      </c>
+      <c r="T128" s="2">
+        <v>0.136149290029802</v>
+      </c>
+      <c r="U128" s="2">
+        <v>-2.5127764835373701E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1.5</v>
+      </c>
+      <c r="B129">
+        <v>0.995</v>
+      </c>
+      <c r="C129">
+        <v>0.43</v>
+      </c>
+      <c r="D129">
+        <v>2.5</v>
+      </c>
+      <c r="E129">
+        <v>14</v>
+      </c>
+      <c r="F129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129">
+        <v>0.9</v>
+      </c>
+      <c r="H129">
+        <v>0.9</v>
+      </c>
+      <c r="I129">
+        <v>0.25</v>
+      </c>
+      <c r="J129">
+        <v>0.25</v>
+      </c>
+      <c r="L129">
+        <v>-2.34345676935598E-2</v>
+      </c>
+      <c r="M129">
+        <v>-70.2000768567693</v>
+      </c>
+      <c r="N129">
+        <v>-429.97014403308702</v>
+      </c>
+      <c r="O129">
+        <v>-308.06876161306502</v>
+      </c>
+      <c r="P129">
+        <v>427.07871704872002</v>
+      </c>
+      <c r="Q129">
+        <v>-50.3403881071931</v>
+      </c>
+      <c r="R129">
+        <v>522.42812988861101</v>
+      </c>
+      <c r="S129">
+        <v>4.4754587442549398E-2</v>
+      </c>
+      <c r="T129">
+        <v>0.12917737636593499</v>
+      </c>
+      <c r="U129">
+        <v>-3.7288129646318002E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1.55</v>
+      </c>
+      <c r="B130">
+        <v>0.995</v>
+      </c>
+      <c r="C130">
+        <v>0.43</v>
+      </c>
+      <c r="D130">
+        <v>2.5</v>
+      </c>
+      <c r="E130">
+        <v>14</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <v>0.9</v>
+      </c>
+      <c r="H130">
+        <v>0.9</v>
+      </c>
+      <c r="I130">
+        <v>0.25</v>
+      </c>
+      <c r="J130">
+        <v>0.25</v>
+      </c>
+      <c r="L130">
+        <v>-1.8819059685353402E-2</v>
+      </c>
+      <c r="M130">
+        <v>-80.240426452194001</v>
+      </c>
+      <c r="N130">
+        <v>-445.80695007417597</v>
+      </c>
+      <c r="O130">
+        <v>-344.28406301101302</v>
+      </c>
+      <c r="P130">
+        <v>414.17455104775098</v>
+      </c>
+      <c r="Q130">
+        <v>-65.126114600982106</v>
+      </c>
+      <c r="R130">
+        <v>516.44086415087895</v>
+      </c>
+      <c r="S130">
+        <v>6.6139477479393693E-2</v>
+      </c>
+      <c r="T130">
+        <v>0.14220004411631901</v>
+      </c>
+      <c r="U130">
+        <v>-1.5790341855541401E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1.65</v>
+      </c>
+      <c r="B131">
+        <v>0.995</v>
+      </c>
+      <c r="C131">
+        <v>0.43</v>
+      </c>
+      <c r="D131">
+        <v>2.5</v>
+      </c>
+      <c r="E131">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131">
+        <v>0.9</v>
+      </c>
+      <c r="H131">
+        <v>0.9</v>
+      </c>
+      <c r="I131">
+        <v>0.25</v>
+      </c>
+      <c r="J131">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L134" t="s">
         <v>20</v>
       </c>
-      <c r="P129" t="s">
+      <c r="P134" t="s">
         <v>20</v>
       </c>
-      <c r="Q129" t="s">
+      <c r="Q134" t="s">
         <v>20</v>
       </c>
-      <c r="R129" t="s">
+      <c r="R134" t="s">
         <v>20</v>
       </c>
-      <c r="S129" t="s">
+      <c r="S134" t="s">
         <v>22</v>
       </c>
-      <c r="T129" t="s">
+      <c r="T134" t="s">
         <v>22</v>
       </c>
-      <c r="U129" t="s">
+      <c r="U134" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L130" t="s">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L135" t="s">
         <v>21</v>
       </c>
-      <c r="P130" t="s">
+      <c r="P135" t="s">
         <v>23</v>
       </c>
-      <c r="Q130" t="s">
+      <c r="Q135" t="s">
         <v>23</v>
       </c>
-      <c r="R130" t="s">
+      <c r="R135" t="s">
         <v>23</v>
       </c>
-      <c r="S130" t="s">
+      <c r="S135" t="s">
         <v>21</v>
       </c>
-      <c r="T130" t="s">
+      <c r="T135" t="s">
         <v>21</v>
       </c>
-      <c r="U130" t="s">
+      <c r="U135" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L131" t="s">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L136" t="s">
         <v>24</v>
       </c>
-      <c r="P131" t="s">
+      <c r="P136" t="s">
         <v>25</v>
       </c>
-      <c r="Q131" t="s">
+      <c r="Q136" t="s">
         <v>25</v>
       </c>
-      <c r="R131" t="s">
+      <c r="R136" t="s">
         <v>25</v>
       </c>
-      <c r="S131" t="s">
+      <c r="S136" t="s">
         <v>25</v>
       </c>
-      <c r="T131" t="s">
+      <c r="T136" t="s">
         <v>25</v>
       </c>
-      <c r="U131" t="s">
+      <c r="U136" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L132" t="s">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L137" t="s">
         <v>26</v>
       </c>
-      <c r="R132" t="s">
+      <c r="R137" t="s">
         <v>27</v>
       </c>
-      <c r="U132" t="s">
+      <c r="U137" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L133" t="s">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L138" t="s">
         <v>28</v>
       </c>
-      <c r="P133" t="s">
+      <c r="P138" t="s">
         <v>28</v>
       </c>
-      <c r="Q133" t="s">
+      <c r="Q138" t="s">
         <v>28</v>
       </c>
-      <c r="R133" t="s">
+      <c r="R138" t="s">
         <v>28</v>
       </c>
-      <c r="S133" t="s">
+      <c r="S138" t="s">
         <v>28</v>
       </c>
-      <c r="T133" t="s">
+      <c r="T138" t="s">
         <v>28</v>
       </c>
-      <c r="U133" t="s">
+      <c r="U138" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L135" s="2">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L140" s="2">
         <v>4.0863910608936502E-2</v>
       </c>
-      <c r="M135" s="7">
+      <c r="M140" s="6">
         <v>6.1288953628491001</v>
       </c>
-      <c r="N135" s="7">
+      <c r="N140" s="6">
         <v>-640.90754466297699</v>
       </c>
-      <c r="O135" s="7">
+      <c r="O140" s="6">
         <v>-372.69622925016603</v>
       </c>
-      <c r="P135" s="2">
+      <c r="P140" s="2">
         <v>596.36500484020701</v>
       </c>
-      <c r="Q135" s="2">
+      <c r="Q140" s="2">
         <v>122.37851119829</v>
       </c>
-      <c r="R135" s="2">
+      <c r="R140" s="2">
         <v>480.28215200384398</v>
       </c>
-      <c r="S135" s="2">
+      <c r="S140" s="2">
         <v>-4.3633759121814102E-2</v>
       </c>
-      <c r="T135" s="2">
+      <c r="T140" s="2">
         <v>0.21726551869412</v>
       </c>
-      <c r="U135" s="2">
+      <c r="U140" s="2">
         <v>-1.6143209584430301E-2</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83454AA-631A-40AC-9AC0-908D23C3DF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECF49F8-A0C2-47BF-9F08-91D1AFD08E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE620007-8DE5-4166-9D3D-9DDAD9493365}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
   <si>
     <t>aaconsToLeisRatio</t>
   </si>
@@ -178,6 +177,18 @@
   </si>
   <si>
     <t xml:space="preserve"> - pension</t>
+  </si>
+  <si>
+    <t>intertemp elasticity</t>
+  </si>
+  <si>
+    <t>should be about 0.5 - not larger than 1.0</t>
+  </si>
+  <si>
+    <t>labour elasticity</t>
+  </si>
+  <si>
+    <t>between -0.12 and +0.28</t>
   </si>
 </sst>
 </file>
@@ -576,11 +587,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC950ECC-B660-45F8-8387-1BED4EFA9C7C}">
-  <dimension ref="A1:W140"/>
+  <dimension ref="A1:Y148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A132" sqref="A132"/>
+      <pane ySplit="2" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W133" sqref="W133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +599,7 @@
     <col min="13" max="15" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -643,8 +654,14 @@
       <c r="U1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L2">
         <f>1.361384</f>
         <v>1.3613839999999999</v>
@@ -685,8 +702,14 @@
         <f xml:space="preserve"> (1 - 0.2535846 - 0.1891631)</f>
         <v>0.55725230000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.9</v>
       </c>
@@ -724,7 +747,7 @@
         <v>0.23895301473086999</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -762,7 +785,7 @@
         <v>0.149677479321951</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -800,7 +823,7 @@
         <v>0.164823647992725</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.8</v>
       </c>
@@ -847,7 +870,7 @@
         <v>0.170550962669308</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.6</v>
       </c>
@@ -894,7 +917,7 @@
         <v>0.16118639601802301</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -941,7 +964,7 @@
         <v>0.12296810661219799</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.01</v>
       </c>
@@ -988,7 +1011,7 @@
         <v>0.12234380216877901</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1035,7 +1058,7 @@
         <v>0.12234380216877901</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L12">
         <v>0.84175556435477406</v>
       </c>
@@ -1067,7 +1090,7 @@
         <v>0.11973800970929099</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L13">
         <v>0.82637119724307595</v>
       </c>
@@ -1099,7 +1122,7 @@
         <v>0.101687468193045</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L14">
         <v>0.88475364886087804</v>
       </c>
@@ -1131,7 +1154,7 @@
         <v>-3.2771093157081201E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L15">
         <v>0.89337947627536196</v>
       </c>
@@ -1163,7 +1186,7 @@
         <v>-8.0703521348501797E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1213,7 +1236,7 @@
         <v>-0.46295518537227498</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.05</v>
       </c>
@@ -1263,7 +1286,7 @@
         <v>-0.46279232334355702</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -1313,7 +1336,7 @@
         <v>-0.46148942711381302</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -1362,12 +1385,8 @@
       <c r="U19">
         <v>-0.45535495736543502</v>
       </c>
-      <c r="W19">
-        <f>T19-S19</f>
-        <v>7.9659658511837886E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.3</v>
       </c>
@@ -1417,7 +1436,7 @@
         <v>-0.43190282523004198</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.5</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>-0.38654575023207799</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.7</v>
       </c>
@@ -1517,7 +1536,7 @@
         <v>-0.35535767173257998</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.9</v>
       </c>
@@ -1567,7 +1586,7 @@
         <v>-0.32381672550419299</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.9</v>
       </c>
@@ -1616,12 +1635,8 @@
       <c r="U24" s="2">
         <v>0.21148361922043299</v>
       </c>
-      <c r="W24">
-        <f>T24-S24</f>
-        <v>0.36115023549750414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.9</v>
       </c>
@@ -1671,7 +1686,7 @@
         <v>0.186131430083331</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.9</v>
       </c>
@@ -1721,7 +1736,7 @@
         <v>0.21208077999239899</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.9</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>0.21069645274829599</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1.1000000000000001</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>0.260613664550365</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.9</v>
       </c>
@@ -1871,7 +1886,7 @@
         <v>0.183987080038544</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.9</v>
       </c>
@@ -1921,7 +1936,7 @@
         <v>0.17872120777666101</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.9</v>
       </c>
@@ -1971,7 +1986,7 @@
         <v>-0.31263353286555701</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.9</v>
       </c>
@@ -2020,12 +2035,8 @@
       <c r="U32">
         <v>2.9593876813875802E-2</v>
       </c>
-      <c r="W32">
-        <f>T32-S32</f>
-        <v>0.24880174331361382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.9</v>
       </c>
@@ -2075,7 +2086,7 @@
         <v>-3.0719361154691802E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.9</v>
       </c>
@@ -2124,12 +2135,8 @@
       <c r="U34">
         <v>0.126415352886729</v>
       </c>
-      <c r="W34">
-        <f>T34-S34</f>
-        <v>0.25814761718673251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.9</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>0.12636106554382301</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.9</v>
       </c>
@@ -2229,7 +2236,7 @@
         <v>0.125763904771857</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.9</v>
       </c>
@@ -2279,7 +2286,7 @@
         <v>0.12234380216877901</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.9</v>
       </c>
@@ -2329,7 +2336,7 @@
         <v>9.3870090814581503E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.9</v>
       </c>
@@ -2379,7 +2386,7 @@
         <v>-1.6756326999810499E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.9</v>
       </c>
@@ -2429,7 +2436,7 @@
         <v>0.124678157913737</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.9</v>
       </c>
@@ -2479,7 +2486,7 @@
         <v>0.12397242245595901</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>0.16680513600879401</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.9</v>
       </c>
@@ -2579,7 +2586,7 @@
         <v>0.23672723367172399</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.9</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>0.23670009000027101</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.9</v>
       </c>
@@ -2679,7 +2686,7 @@
         <v>0.236754377343177</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.9</v>
       </c>
@@ -6932,7 +6939,7 @@
         <v>-2.5127764835373701E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1.5</v>
       </c>
@@ -6994,7 +7001,7 @@
         <v>-3.7288129646318002E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.55</v>
       </c>
@@ -7056,7 +7063,7 @@
         <v>-1.5790341855541401E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1.65</v>
       </c>
@@ -7088,140 +7095,214 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L134" t="s">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1.5</v>
+      </c>
+      <c r="B132">
+        <v>0.995</v>
+      </c>
+      <c r="C132">
+        <v>0.43</v>
+      </c>
+      <c r="D132">
+        <v>2.5</v>
+      </c>
+      <c r="E132">
+        <v>14</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132">
+        <v>0.9</v>
+      </c>
+      <c r="H132">
+        <v>0.8</v>
+      </c>
+      <c r="I132">
+        <v>0.2</v>
+      </c>
+      <c r="J132">
+        <v>0.2</v>
+      </c>
+      <c r="L132">
+        <v>-6.07270342589354E-2</v>
+      </c>
+      <c r="M132">
+        <v>-29.4493916379535</v>
+      </c>
+      <c r="N132">
+        <v>-433.27996315099199</v>
+      </c>
+      <c r="O132">
+        <v>-303.13300428008</v>
+      </c>
+      <c r="P132">
+        <v>431.32295152415401</v>
+      </c>
+      <c r="Q132">
+        <v>-52.985596400161697</v>
+      </c>
+      <c r="R132">
+        <v>528.73192225573905</v>
+      </c>
+      <c r="S132">
+        <v>5.7251263858396198E-2</v>
+      </c>
+      <c r="T132">
+        <v>0.133891545967669</v>
+      </c>
+      <c r="U132">
+        <v>-1.9183300787166398E-2</v>
+      </c>
+      <c r="W132">
+        <v>0.38458999999999999</v>
+      </c>
+      <c r="X132" s="2">
+        <v>8.7550000000000006E-3</v>
+      </c>
+      <c r="Y132" s="2"/>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L138" t="s">
         <v>20</v>
       </c>
-      <c r="P134" t="s">
+      <c r="P138" t="s">
         <v>20</v>
       </c>
-      <c r="Q134" t="s">
+      <c r="Q138" t="s">
         <v>20</v>
       </c>
-      <c r="R134" t="s">
+      <c r="R138" t="s">
         <v>20</v>
       </c>
-      <c r="S134" t="s">
+      <c r="S138" t="s">
         <v>22</v>
       </c>
-      <c r="T134" t="s">
+      <c r="T138" t="s">
         <v>22</v>
       </c>
-      <c r="U134" t="s">
+      <c r="U138" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L135" t="s">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L139" t="s">
         <v>21</v>
       </c>
-      <c r="P135" t="s">
+      <c r="P139" t="s">
         <v>23</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="Q139" t="s">
         <v>23</v>
       </c>
-      <c r="R135" t="s">
+      <c r="R139" t="s">
         <v>23</v>
       </c>
-      <c r="S135" t="s">
+      <c r="S139" t="s">
         <v>21</v>
       </c>
-      <c r="T135" t="s">
+      <c r="T139" t="s">
         <v>21</v>
       </c>
-      <c r="U135" t="s">
+      <c r="U139" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L136" t="s">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L140" t="s">
         <v>24</v>
       </c>
-      <c r="P136" t="s">
+      <c r="P140" t="s">
         <v>25</v>
       </c>
-      <c r="Q136" t="s">
+      <c r="Q140" t="s">
         <v>25</v>
       </c>
-      <c r="R136" t="s">
+      <c r="R140" t="s">
         <v>25</v>
       </c>
-      <c r="S136" t="s">
+      <c r="S140" t="s">
         <v>25</v>
       </c>
-      <c r="T136" t="s">
+      <c r="T140" t="s">
         <v>25</v>
       </c>
-      <c r="U136" t="s">
+      <c r="U140" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L137" t="s">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L141" t="s">
         <v>26</v>
       </c>
-      <c r="R137" t="s">
+      <c r="R141" t="s">
         <v>27</v>
       </c>
-      <c r="U137" t="s">
+      <c r="U141" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L138" t="s">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L142" t="s">
         <v>28</v>
       </c>
-      <c r="P138" t="s">
+      <c r="P142" t="s">
         <v>28</v>
       </c>
-      <c r="Q138" t="s">
+      <c r="Q142" t="s">
         <v>28</v>
       </c>
-      <c r="R138" t="s">
+      <c r="R142" t="s">
         <v>28</v>
       </c>
-      <c r="S138" t="s">
+      <c r="S142" t="s">
         <v>28</v>
       </c>
-      <c r="T138" t="s">
+      <c r="T142" t="s">
         <v>28</v>
       </c>
-      <c r="U138" t="s">
+      <c r="U142" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L140" s="2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="L144" s="2">
         <v>4.0863910608936502E-2</v>
       </c>
-      <c r="M140" s="6">
+      <c r="M144" s="6">
         <v>6.1288953628491001</v>
       </c>
-      <c r="N140" s="6">
+      <c r="N144" s="6">
         <v>-640.90754466297699</v>
       </c>
-      <c r="O140" s="6">
+      <c r="O144" s="6">
         <v>-372.69622925016603</v>
       </c>
-      <c r="P140" s="2">
+      <c r="P144" s="2">
         <v>596.36500484020701</v>
       </c>
-      <c r="Q140" s="2">
+      <c r="Q144" s="2">
         <v>122.37851119829</v>
       </c>
-      <c r="R140" s="2">
+      <c r="R144" s="2">
         <v>480.28215200384398</v>
       </c>
-      <c r="S140" s="2">
+      <c r="S144" s="2">
         <v>-4.3633759121814102E-2</v>
       </c>
-      <c r="T140" s="2">
+      <c r="T144" s="2">
         <v>0.21726551869412</v>
       </c>
-      <c r="U140" s="2">
+      <c r="U144" s="2">
         <v>-1.6143209584430301E-2</v>
       </c>
+    </row>
+    <row r="148" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
